--- a/Excel/ChampionTypeConfig.xlsx
+++ b/Excel/ChampionTypeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="12311"/>
+    <workbookView windowWidth="22788" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,45 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>羁绊触发所需人数</t>
-  </si>
-  <si>
-    <t>羁绊效果类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 羁绊效果目标</t>
-  </si>
-  <si>
-    <t>羁绊效果数值</t>
-  </si>
-  <si>
-    <t>效果持续时间</t>
-  </si>
-  <si>
-    <t>效果预制件</t>
-  </si>
-  <si>
-    <t>championCount</t>
-  </si>
-  <si>
-    <t>championBonusType</t>
-  </si>
-  <si>
-    <t>bonusTarget</t>
-  </si>
-  <si>
-    <t>bonusValue</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>effectPrefab</t>
+    <t>羁绊名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 图标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 关联的羁绊效果</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>championBonusId</t>
   </si>
   <si>
     <t>int</t>
@@ -76,25 +58,40 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>Stun</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Heal</t>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/archer icon</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/fire icon 1</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/frost icon 1</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/knight icon</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/nature icon 1</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/wizzard icon 64</t>
   </si>
 </sst>
 </file>
@@ -737,13 +734,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,20 +1063,21 @@
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="32.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="66.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="32.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="20.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="24.2222222222222" customWidth="1"/>
     <col min="9" max="9" width="29.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="19.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:9">
+    <row r="3" ht="16.2" spans="3:6">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,199 +1090,136 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:9">
+    </row>
+    <row r="4" ht="16.2" spans="3:6">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:6">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:9">
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>123</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>123</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>123</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>123</v>
-      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>123</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>123</v>
-      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="10:10">
       <c r="J12" s="2"/>
@@ -1299,16 +1237,20 @@
     <row r="17" spans="6:6">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="5:6">
+      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="5:6">
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="5:6">
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="5:6">
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
   </sheetData>

--- a/Excel/ChampionTypeConfig.xlsx
+++ b/Excel/ChampionTypeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22788" windowHeight="13440"/>
+    <workbookView windowWidth="22788" windowHeight="6612"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,16 +734,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,7 +1060,7 @@
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1238,19 +1235,19 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="4"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
   </sheetData>

--- a/Excel/ChampionTypeConfig.xlsx
+++ b/Excel/ChampionTypeConfig.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -61,24 +61,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Archer</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Frost</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Wizard</t>
   </si>
   <si>
     <t>UIGames/UIChess/DiscreteImages/archer icon.png</t>
@@ -169,12 +151,40 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">巫师 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +239,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +277,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,7 +565,7 @@
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -622,11 +642,11 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -639,11 +659,11 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -656,11 +676,11 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -673,11 +693,11 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
@@ -690,11 +710,11 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
@@ -707,6 +727,9 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>

--- a/Excel/ChampionTypeConfig.xlsx
+++ b/Excel/ChampionTypeConfig.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="6615"/>
+    <workbookView windowWidth="25991" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,11 +58,23 @@
     <t>string</t>
   </si>
   <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
     <t>UIGames/UIChess/DiscreteImages/archer icon.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UIGames/UIChess/DiscreteImages/fire icon 1</t>
     </r>
     <r>
@@ -75,16 +82,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UIGames/UIChess/DiscreteImages/frost icon 1</t>
     </r>
     <r>
@@ -92,16 +107,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UIGames/UIChess/DiscreteImages/knight icon</t>
     </r>
     <r>
@@ -109,16 +132,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UIGames/UIChess/DiscreteImages/nature icon 1</t>
     </r>
     <r>
@@ -126,16 +157,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">巫师 </t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UIGames/UIChess/DiscreteImages/wizzard icon 64</t>
     </r>
     <r>
@@ -143,48 +182,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.png</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">巫师 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,50 +223,172 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +401,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -270,43 +596,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -556,30 +1168,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="66.5" customWidth="1"/>
-    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="32.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.2" spans="3:6">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="16.2" spans="3:6">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="16.2" spans="3:6">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -621,15 +1233,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -638,15 +1250,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9">
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -655,15 +1267,15 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:9">
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -672,15 +1284,15 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:9">
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -689,15 +1301,15 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:9">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
@@ -706,15 +1318,15 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:9">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>6</v>
@@ -723,72 +1335,78 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="10:10">
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:10">
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+    <row r="15" spans="6:6">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>